--- a/bots/crawl_ch/output/vegi_coop_2023-02-15.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-02-15.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -815,7 +815,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1014,7 +1014,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1554,7 +1554,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1879,7 +1879,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2147,7 +2147,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2281,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2340,13 +2340,13 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>Stangensellerie ca. 500g 1.50 Schweizer Franken</t>
+          <t>Stangensellerie ca. 500g - Online kein Bestand 1.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2618,7 +2618,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2681,7 +2681,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Betty Bossi Naturaplan Bio Jungsalat 4.30 Schweizer Franken</t>
+          <t>Betty Bossi Naturaplan Bio Jungsalat - Online kein Bestand 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2756,7 +2756,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3012,7 +3012,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3077,7 +3077,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3146,7 +3146,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3211,7 +3211,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3410,7 +3410,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3479,7 +3479,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3544,7 +3544,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3751,7 +3751,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3820,7 +3820,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -3958,7 +3958,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4100,28 +4100,28 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>6650479</t>
+          <t>3091051</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Datteln Medjool</t>
+          <t>Peperoncini rot ca. 50g</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/datteln-medjool/p/6650479</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/peperoncini-rot-ca/p/3091051</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E56" t="n">
         <v>4.5</v>
@@ -4129,12 +4129,12 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>1.53/100g</t>
+          <t>1.25/100g</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -4144,7 +4144,7 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>1.53</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4154,39 +4154,39 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Datteln Medjool 11.50 Schweizer Franken</t>
+          <t>Peperoncini rot ca. 50g 0.65 Schweizer Franken</t>
         </is>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3091051</t>
+          <t>6650479</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Peperoncini rot ca. 50g</t>
+          <t>Datteln Medjool</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/peperoncini-rot-ca/p/3091051</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/datteln-medjool/p/6650479</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="E57" t="n">
         <v>4.5</v>
@@ -4194,12 +4194,12 @@
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>1.53/100g</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
@@ -4209,7 +4209,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4219,18 +4219,18 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'chili-zitronengras-ingwer']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Peperoncini rot ca. 50g 0.65 Schweizer Franken</t>
+          <t>Datteln Medjool 11.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4299,7 +4299,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4364,7 +4364,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4754,7 +4754,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4823,7 +4823,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4892,7 +4892,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5038,7 +5038,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5176,7 +5176,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5245,7 +5245,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5793,7 +5793,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5931,7 +5931,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -5996,7 +5996,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6059,7 +6059,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>Betty Bossi Jung-Spinat 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Jung-Spinat - Online kein Bestand 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N84" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6207,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6341,7 +6341,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6410,7 +6410,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6479,7 +6479,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6548,7 +6548,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6617,7 +6617,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6824,7 +6824,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -6962,7 +6962,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7031,7 +7031,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7100,7 +7100,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7169,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7380,7 +7380,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7583,7 +7583,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7717,7 +7717,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7790,7 +7790,7 @@
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -7979,7 +7979,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8389,7 +8389,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8462,7 +8462,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8531,7 +8531,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8600,7 +8600,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8880,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9083,7 +9083,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9152,7 +9152,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9286,7 +9286,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9428,7 +9428,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9631,7 +9631,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9700,7 +9700,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9842,7 +9842,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9907,7 +9907,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -9976,7 +9976,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10187,7 +10187,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10394,7 +10394,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10601,7 +10601,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10670,7 +10670,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10743,7 +10743,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -10944,137 +10944,137 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>3091328</t>
+          <t>3150048</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Broccoli &amp;amp; Blumenkohl 2 Stück</t>
+          <t>Rettich weiss 1 Stück</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-2-stueck/p/3091328</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/rettich-weiss-1-stueck/p/3150048</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E156" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1.65/1ST</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>Broccoli &amp;amp; Blumenkohl 2 Stück 3.30 Schweizer Franken</t>
+          <t>Rettich weiss 1 Stück 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>3150048</t>
+          <t>3091328</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Rettich weiss 1 Stück</t>
+          <t>Broccoli &amp;amp; Blumenkohl 2 Stück</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/radieschen-rettich/rettich-weiss-1-stueck/p/3150048</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/broccoli-blumenkohl/broccoli-blumenkohl-2-stueck/p/3091328</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E157" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>1.65/1ST</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'radieschen-rettich']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'broccoli-blumenkohl']</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>Rettich weiss 1 Stück 1.95 Schweizer Franken</t>
+          <t>Broccoli &amp;amp; Blumenkohl 2 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11139,7 +11139,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11350,7 +11350,7 @@
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11419,7 +11419,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11488,7 +11488,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11557,7 +11557,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11691,7 +11691,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11760,7 +11760,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11825,7 +11825,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11894,7 +11894,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -11963,7 +11963,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12032,7 +12032,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12097,7 +12097,7 @@
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12144,7 +12144,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12217,7 +12217,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12286,7 +12286,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12335,7 +12335,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12408,169 +12408,177 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>5730681</t>
+          <t>6497015</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Schalotten</t>
+          <t>Prix Garantie Orangen</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/schalotten/p/5730681</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="E178" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F178" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>0.69/100g</t>
+          <t>1.32/1kg</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>Schalotten 2.40 Schweizer Franken</t>
+          <t>Prix Garantie Orangen 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>6497015</t>
+          <t>6570070</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen</t>
+          <t>Planted vegane filets mariniert</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/zitrusfruechte/prix-garantie-orangen/p/6497015</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-vegane-filets-mariniert/p/6570070</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E179" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1.32/1kg</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'zitrusfruechte']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>Prix Garantie Orangen 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N179" t="inlineStr"/>
+          <t>Planted vegane filets mariniert 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>6570070</t>
+          <t>6683192</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Planted vegane filets mariniert</t>
+          <t>Naturaplan Bio Erdnüsse</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-vegane-filets-mariniert/p/6570070</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-erdnuesse/p/6683192</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="E180" t="n">
         <v>4.5</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -12580,7 +12588,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -12590,7 +12598,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -12600,60 +12608,52 @@
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>Planted vegane filets mariniert 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N180" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Erdnüsse 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>6683192</t>
+          <t>5730681</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Erdnüsse</t>
+          <t>Schalotten</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-erdnuesse/p/6683192</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/schalotten/p/5730681</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="E181" t="n">
         <v>4.5</v>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>0.69/100g</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -12663,7 +12663,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -12673,18 +12673,18 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Erdnüsse 5.95 Schweizer Franken</t>
+          <t>Schalotten 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12757,7 +12757,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12899,7 +12899,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -12968,7 +12968,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13102,7 +13102,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13175,7 +13175,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13309,7 +13309,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13376,7 +13376,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13518,7 +13518,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13583,7 +13583,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13652,7 +13652,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13798,7 +13798,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13867,7 +13867,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -13940,7 +13940,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14222,7 +14222,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14291,7 +14291,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14354,7 +14354,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14573,7 +14573,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14642,7 +14642,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14715,7 +14715,7 @@
       </c>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14788,7 +14788,7 @@
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14861,7 +14861,7 @@
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14926,7 +14926,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15068,7 +15068,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15137,7 +15137,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15210,7 +15210,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15283,7 +15283,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15348,7 +15348,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15421,7 +15421,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15490,7 +15490,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15555,28 +15555,28 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>6241817</t>
+          <t>3091438</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Naturaplan Demeter Bio Kartoffeln</t>
+          <t>Naturaplan Bio Baumnüsse</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-demeter-bio-kartoffeln/p/6241817</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-baumnuesse/p/3091438</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E223" t="n">
         <v>4</v>
@@ -15588,12 +15588,12 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>2.80</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>0.37/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -15603,7 +15603,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -15613,39 +15613,39 @@
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>Naturaplan Demeter Bio Kartoffeln 2.80 Schweizer Franken</t>
+          <t>Naturaplan Bio Baumnüsse 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>3091438</t>
+          <t>6241817</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse</t>
+          <t>Naturaplan Demeter Bio Kartoffeln</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/naturaplan-bio-baumnuesse/p/3091438</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/kartoffeln/naturaplan-demeter-bio-kartoffeln/p/6241817</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E224" t="n">
         <v>4</v>
@@ -15657,12 +15657,12 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>0.37/100g</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -15672,7 +15672,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -15682,18 +15682,18 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'kartoffeln']</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Baumnüsse 4.95 Schweizer Franken</t>
+          <t>Naturaplan Demeter Bio Kartoffeln 2.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15762,7 +15762,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15827,7 +15827,7 @@
       <c r="N226" t="inlineStr"/>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15900,7 +15900,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -15969,7 +15969,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16042,7 +16042,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16105,7 +16105,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16170,7 +16170,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16243,7 +16243,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16316,7 +16316,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16379,7 +16379,7 @@
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Délicorn Quorn Schnitzel Mozzarella &amp;amp; Pesto 5.95 Schweizer Franken</t>
+          <t>Délicorn Quorn Schnitzel Mozzarella &amp;amp; Pesto - Online kein Bestand 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16535,7 +16535,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16588,7 +16588,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16657,7 +16657,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16726,7 +16726,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16799,7 +16799,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16868,7 +16868,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -16937,31 +16937,31 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>6222627</t>
+          <t>6114998</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoncini rot</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-peperoncini-rot/p/6222627</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E243" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -16970,27 +16970,27 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>2.40/1ST</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L243" t="inlineStr">
@@ -17000,37 +17000,37 @@
       </c>
       <c r="M243" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Peperoncini rot 2.40 Schweizer Franken</t>
+          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>6114998</t>
+          <t>6222627</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g</t>
+          <t>Naturaplan Bio Peperoncini rot</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-kurkuma-ca/p/6114998</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/chili-zitronengras-ingwer/naturaplan-bio-peperoncini-rot/p/6222627</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="E244" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -17039,27 +17039,27 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>2.40/1ST</t>
         </is>
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
@@ -17069,13 +17069,13 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Kurkuma ca. 100g 2.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Peperoncini rot 2.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17140,7 +17140,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17209,7 +17209,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17282,7 +17282,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17347,7 +17347,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17420,7 +17420,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17493,39 +17493,43 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7043951</t>
+          <t>7107447</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Saucenzwiebeln IP-Suisse</t>
+          <t>Pro Specie Rara Karotten Gniff</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/saucenzwiebeln-ip-suisse/p/7043951</t>
+          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
       <c r="E251" t="n">
         <v>0</v>
       </c>
-      <c r="F251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>0.28/100g</t>
+          <t>0.79/100g</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
@@ -17535,7 +17539,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -17545,54 +17549,50 @@
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
         </is>
       </c>
       <c r="M251" t="inlineStr">
         <is>
-          <t>Saucenzwiebeln IP-Suisse 1.40 Schweizer Franken</t>
+          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>7107447</t>
+          <t>7043951</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff</t>
+          <t>Saucenzwiebeln IP-Suisse</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/wurzelgemuese/rueebli-pastinaken/pro-specie-rara-karotten-gniff/p/7107447</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/zwiebeln-knoblauch/saucenzwiebeln-ip-suisse/p/7043951</t>
         </is>
       </c>
       <c r="D252" t="inlineStr"/>
       <c r="E252" t="n">
         <v>0</v>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+      <c r="F252" t="inlineStr"/>
       <c r="G252" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>0.79/100g</t>
+          <t>0.28/100g</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -17602,7 +17602,7 @@
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="K252" t="inlineStr">
@@ -17612,18 +17612,18 @@
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'wurzelgemuese', 'rueebli-pastinaken']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'zwiebeln-knoblauch']</t>
         </is>
       </c>
       <c r="M252" t="inlineStr">
         <is>
-          <t>Pro Specie Rara Karotten Gniff 3.95 Schweizer Franken</t>
+          <t>Saucenzwiebeln IP-Suisse 1.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N252" t="inlineStr"/>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17688,7 +17688,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17757,7 +17757,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17830,7 +17830,7 @@
       </c>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17903,7 +17903,7 @@
       </c>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -17976,7 +17976,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18122,7 +18122,7 @@
       </c>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18191,7 +18191,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18256,7 +18256,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18325,35 +18325,35 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>6073235</t>
+          <t>3091461</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>festivo geräucherter Stick VEGAN</t>
+          <t>Schöni Sauerkraut roh</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherter-stick-vegan/p/6073235</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="E263" t="n">
         <v>5</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>festivo</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -18363,7 +18363,7 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>4.21/100g</t>
+          <t>0.59/100g</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
@@ -18373,7 +18373,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -18383,12 +18383,12 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
         <is>
-          <t>festivo geräucherter Stick VEGAN 2.95 Schweizer Franken</t>
+          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N263" t="inlineStr">
@@ -18398,35 +18398,35 @@
       </c>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>3091461</t>
+          <t>6073235</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh</t>
+          <t>festivo geräucherter Stick VEGAN</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerkraut-roh/p/3091461</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/festivo-geraeucherter-stick-vegan/p/6073235</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="E264" t="n">
         <v>5</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>festivo</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -18436,7 +18436,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>0.59/100g</t>
+          <t>4.21/100g</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
@@ -18446,7 +18446,7 @@
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="K264" t="inlineStr">
@@ -18456,12 +18456,12 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
         <is>
-          <t>Schöni Sauerkraut roh 2.95 Schweizer Franken</t>
+          <t>festivo geräucherter Stick VEGAN 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N264" t="inlineStr">
@@ -18471,7 +18471,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18538,7 +18538,7 @@
       <c r="N265" t="inlineStr"/>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18676,7 +18676,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18745,7 +18745,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18810,7 +18810,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19025,7 +19025,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19090,45 +19090,45 @@
       <c r="N273" t="inlineStr"/>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6877729</t>
+          <t>4655212</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Planted curry</t>
+          <t>Betty Bossi Mini Kopfsalat rot</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E274" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Planted</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>3.40/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19138,7 +19138,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19148,60 +19148,60 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Planted curry 5.95 Schweizer Franken</t>
+          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>4655212</t>
+          <t>6877729</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot</t>
+          <t>Planted curry</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salate/geschnittene-salate/betty-bossi-mini-kopfsalat-rot/p/4655212</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/planted-curry/p/6877729</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E275" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Planted</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>3.40/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19211,7 +19211,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19221,22 +19221,22 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salate', 'geschnittene-salate']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Betty Bossi Mini Kopfsalat rot 3.20 Schweizer Franken</t>
+          <t>Planted curry 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19309,7 +19309,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19378,7 +19378,7 @@
       <c r="N277" t="inlineStr"/>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19447,7 +19447,7 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19516,7 +19516,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19585,7 +19585,7 @@
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19654,7 +19654,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19727,7 +19727,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19800,7 +19800,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19865,7 +19865,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19928,7 +19928,7 @@
       <c r="N285" t="inlineStr"/>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -19997,7 +19997,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20143,7 +20143,7 @@
       </c>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20210,45 +20210,41 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>6744335</t>
+          <t>7060571</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Veg Pastrami</t>
+          <t>Swiss Cherry Rispen-Tomaten</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/veg-pastrami/p/6744335</t>
+          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F290" t="inlineStr">
-        <is>
-          <t>LIVEG</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F290" t="inlineStr"/>
       <c r="G290" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>4.67/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
@@ -20258,7 +20254,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -20268,56 +20264,56 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
         </is>
       </c>
       <c r="M290" t="inlineStr">
         <is>
-          <t>Veg Pastrami 4.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N290" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>7060571</t>
+          <t>6744335</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten</t>
+          <t>Veg Pastrami</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/salatgemuese/tomaten/swiss-cherry-rispen-tomaten/p/7060571</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/veg-pastrami/p/6744335</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="E291" t="n">
-        <v>5</v>
-      </c>
-      <c r="F291" t="inlineStr"/>
+        <v>4.5</v>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>LIVEG</t>
+        </is>
+      </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>4.67/100g</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -20327,7 +20323,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -20337,18 +20333,22 @@
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'salatgemuese', 'tomaten']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M291" t="inlineStr">
         <is>
-          <t>Swiss Cherry Rispen-Tomaten 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N291" t="inlineStr"/>
+          <t>Veg Pastrami 4.20 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20417,7 +20417,7 @@
       <c r="N292" t="inlineStr"/>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20482,7 +20482,7 @@
       <c r="N293" t="inlineStr"/>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20555,7 +20555,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20620,7 +20620,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20685,7 +20685,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20754,7 +20754,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20827,7 +20827,7 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20896,7 +20896,7 @@
       <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -20965,7 +20965,7 @@
       <c r="N300" t="inlineStr"/>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21032,7 +21032,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21178,7 +21178,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21243,7 +21243,7 @@
       <c r="N304" t="inlineStr"/>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21316,7 +21316,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21389,7 +21389,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21458,7 +21458,7 @@
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21531,7 +21531,7 @@
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21596,7 +21596,7 @@
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21663,7 +21663,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21736,7 +21736,7 @@
       </c>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21809,7 +21809,7 @@
       </c>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21882,7 +21882,7 @@
       </c>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -21951,7 +21951,7 @@
       <c r="N314" t="inlineStr"/>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22024,31 +22024,31 @@
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>4069878</t>
+          <t>5982896</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück</t>
+          <t>Betty Bossi Fairtrade Früchte Mix</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E316" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F316" t="inlineStr">
         <is>
@@ -22057,67 +22057,71 @@
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>1.80/1ST</t>
+          <t>2.53/100g</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L316" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
         </is>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N316" t="inlineStr"/>
+          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>5982896</t>
+          <t>4069878</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix</t>
+          <t>Fairtrade Kokosnuss 1 Stück</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/ananas-mangos/betty-bossi-fairtrade-fruechte-mix/p/5982896</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/weitere-exotische-fruechte/fairtrade-kokosnuss-1-stueck/p/4069878</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E317" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
@@ -22126,47 +22130,43 @@
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>2.53/100g</t>
+          <t>1.80/1ST</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>2.53</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'ananas-mangos']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'weitere-exotische-fruechte']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Betty Bossi Fairtrade Früchte Mix 3.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Fairtrade Kokosnuss 1 Stück 1.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr"/>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22235,7 +22235,7 @@
       <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22308,7 +22308,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22381,7 +22381,7 @@
       </c>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22454,7 +22454,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22527,7 +22527,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22600,7 +22600,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22673,7 +22673,7 @@
       </c>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22746,7 +22746,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22819,7 +22819,7 @@
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22892,7 +22892,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -22961,7 +22961,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23034,145 +23034,145 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6798822</t>
+          <t>3090415</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Planted Schnitzel</t>
+          <t>Äpfel Boskop Klasse I ca. 1kg</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-boskop-klasse-i-ca/p/3090415</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E330" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="F330" t="inlineStr">
-        <is>
-          <t>Planted</t>
-        </is>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>3.16/100g</t>
+          <t>3.50/1kg</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Äpfel Boskop Klasse I ca. 1kg 3.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr"/>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>3090415</t>
+          <t>6798822</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Äpfel Boskop Klasse I ca. 1kg</t>
+          <t>Planted Schnitzel</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte/aepfel-birnen/aepfel-boskop-klasse-i-ca/p/3090415</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/planted-schnitzel/p/6798822</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E331" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F331" t="inlineStr"/>
+        <v>3.5</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Planted</t>
+        </is>
+      </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>3.50/1kg</t>
+          <t>3.16/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte', 'aepfel-birnen']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Äpfel Boskop Klasse I ca. 1kg 3.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr"/>
+          <t>Planted Schnitzel 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23245,7 +23245,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23318,7 +23318,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23391,7 +23391,7 @@
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23460,7 +23460,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23533,7 +23533,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23598,7 +23598,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23671,7 +23671,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23736,7 +23736,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23809,7 +23809,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23878,7 +23878,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -23951,7 +23951,7 @@
       </c>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24020,7 +24020,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24093,7 +24093,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24166,7 +24166,7 @@
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24219,7 +24219,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24286,7 +24286,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24359,7 +24359,7 @@
       </c>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24432,7 +24432,7 @@
       </c>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24501,31 +24501,31 @@
       <c r="N350" t="inlineStr"/>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>6999612</t>
+          <t>6862503</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat</t>
+          <t>Betty Bossi Sous vide Karotten</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
+          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E351" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
@@ -24534,12 +24534,12 @@
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>1.55/100g</t>
+          <t>1.24/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -24549,7 +24549,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -24559,22 +24559,22 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
+          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N351" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24639,7 +24639,7 @@
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24712,31 +24712,31 @@
       </c>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>6862503</t>
+          <t>6999612</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten</t>
+          <t>Betty Bossi Poulet Currysalat</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/weiteres-gemuese/pfannenfertiges-gemuese/betty-bossi-sous-vide-karotten/p/6862503</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-poulet-currysalat/p/6999612</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E354" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -24745,12 +24745,12 @@
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>1.24/100g</t>
+          <t>1.55/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -24760,7 +24760,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>1.24</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -24770,22 +24770,22 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'weiteres-gemuese', 'pfannenfertiges-gemuese']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Betty Bossi Sous vide Karotten 4.95 Schweizer Franken</t>
+          <t>Betty Bossi Poulet Currysalat 5.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24858,7 +24858,7 @@
       </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -24927,7 +24927,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25000,7 +25000,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25069,7 +25069,7 @@
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25142,7 +25142,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25215,7 +25215,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25288,7 +25288,7 @@
       </c>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25361,7 +25361,7 @@
       </c>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25434,7 +25434,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25507,7 +25507,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25572,7 +25572,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25645,7 +25645,7 @@
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25718,7 +25718,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25787,7 +25787,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25858,7 +25858,7 @@
       </c>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -25927,7 +25927,7 @@
       <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26000,7 +26000,7 @@
       </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26073,7 +26073,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26146,7 +26146,7 @@
       </c>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26219,7 +26219,7 @@
       </c>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26363,7 +26363,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26434,7 +26434,7 @@
       </c>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26503,7 +26503,7 @@
       <c r="N378" t="inlineStr"/>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26574,7 +26574,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26647,7 +26647,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26720,7 +26720,7 @@
       </c>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26785,7 +26785,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26854,7 +26854,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -26992,7 +26992,7 @@
       <c r="N385" t="inlineStr"/>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27059,7 +27059,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27132,7 +27132,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27197,7 +27197,7 @@
       <c r="N388" t="inlineStr"/>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27270,7 +27270,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27339,7 +27339,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27392,7 +27392,7 @@
       <c r="N391" t="inlineStr"/>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27457,7 +27457,7 @@
       <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27526,7 +27526,7 @@
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27599,7 +27599,7 @@
       </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27666,7 +27666,7 @@
       <c r="N395" t="inlineStr"/>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27735,7 +27735,7 @@
       <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27808,7 +27808,7 @@
       </c>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -27881,45 +27881,45 @@
       </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>3091369</t>
+          <t>6881617</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E399" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Schöni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>0.66/100g</t>
+          <t>0.65/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -27929,7 +27929,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -27939,60 +27939,60 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
+          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N399" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>6881617</t>
+          <t>3091369</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten</t>
+          <t>Schöni Sauerrüben roh</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/prix-garantie-pasta-salat-mit-tomaten/p/6881617</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/schoeni-sauerrueben-roh/p/3091369</t>
         </is>
       </c>
       <c r="D400" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E400" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schöni</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>0.65/100g</t>
+          <t>0.66/100g</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
@@ -28002,7 +28002,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -28012,22 +28012,22 @@
       </c>
       <c r="L400" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>Prix Garantie Pasta-Salat mit Tomaten 1.95 Schweizer Franken</t>
+          <t>Schöni Sauerrüben roh 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28092,7 +28092,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28165,7 +28165,7 @@
       </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28232,7 +28232,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28305,7 +28305,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28378,7 +28378,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28451,7 +28451,7 @@
       </c>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28516,7 +28516,7 @@
       <c r="N407" t="inlineStr"/>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28585,7 +28585,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28650,41 +28650,45 @@
       <c r="N409" t="inlineStr"/>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>6525951</t>
+          <t>6638726</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Marroni gekocht</t>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
+          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
         </is>
       </c>
       <c r="D410" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
-      </c>
-      <c r="F410" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F410" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>6.75</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>1.69/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
@@ -28694,7 +28698,7 @@
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K410" t="inlineStr">
@@ -28704,56 +28708,56 @@
       </c>
       <c r="L410" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
         </is>
       </c>
       <c r="M410" t="inlineStr">
         <is>
-          <t>Marroni gekocht 6.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N410" t="inlineStr"/>
+          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N410" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>6638726</t>
+          <t>6525951</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto</t>
+          <t>Marroni gekocht</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fertiggerichte/frische-fertiggerichte/fertigsalate/betty-bossi-salat-pasta-pesto/p/6638726</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/marroni-gekocht/p/6525951</t>
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E411" t="n">
-        <v>2</v>
-      </c>
-      <c r="F411" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>1.69/100g</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
@@ -28763,7 +28767,7 @@
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="K411" t="inlineStr">
@@ -28773,22 +28777,18 @@
       </c>
       <c r="L411" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fertiggerichte', 'frische-fertiggerichte', 'fertigsalate']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M411" t="inlineStr">
         <is>
-          <t>Betty Bossi Salat Pasta &amp;amp; Pesto 4.80 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N411" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Marroni gekocht 6.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N411" t="inlineStr"/>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28861,7 +28861,7 @@
       </c>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -28928,7 +28928,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29001,7 +29001,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29054,45 +29054,45 @@
       <c r="N415" t="inlineStr"/>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>7019161</t>
+          <t>5773713</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds</t>
+          <t>Betty Bossi Rotkraut gekocht</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
         </is>
       </c>
       <c r="D416" t="n">
         <v>7</v>
       </c>
       <c r="E416" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>SNACKIT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>4.39/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
@@ -29102,7 +29102,7 @@
       </c>
       <c r="J416" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K416" t="inlineStr">
@@ -29112,60 +29112,60 @@
       </c>
       <c r="L416" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
         </is>
       </c>
       <c r="M416" t="inlineStr">
         <is>
-          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
+          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N416" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>5773713</t>
+          <t>7019161</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht</t>
+          <t>Snack VegestorySnack 3 Seeds</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kohlgemuese/sauerkraut-rotkraut/betty-bossi-rotkraut-gekocht/p/5773713</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/snack-vegestorysnack-3-seeds/p/7019161</t>
         </is>
       </c>
       <c r="D417" t="n">
         <v>7</v>
       </c>
       <c r="E417" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>SNACKIT</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>4.39/100g</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
@@ -29175,7 +29175,7 @@
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -29185,22 +29185,22 @@
       </c>
       <c r="L417" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kohlgemuese', 'sauerkraut-rotkraut']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M417" t="inlineStr">
         <is>
-          <t>Betty Bossi Rotkraut gekocht 4.50 Schweizer Franken</t>
+          <t>Snack VegestorySnack 3 Seeds 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N417" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29271,7 +29271,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29338,7 +29338,7 @@
       <c r="N419" t="inlineStr"/>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29401,7 +29401,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29474,112 +29474,116 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>4434295</t>
+          <t>6622887</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox</t>
+          <t>UMAMI Microgreens Powermix</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
-        </is>
-      </c>
-      <c r="D422" t="n">
-        <v>26</v>
-      </c>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr"/>
       <c r="E422" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>UMAMI</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>24.40</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>8.13/1kg</t>
+          <t>19.80/100g</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>8.13</t>
+          <t>19.80</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L422" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
         </is>
       </c>
       <c r="M422" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N422" t="inlineStr"/>
+          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N422" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>6622887</t>
+          <t>7102828</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix</t>
+          <t>Outlawz Food veganes Schinkentranchen</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/frische-kraeuter/umami-microgreens-powermix/p/6622887</t>
-        </is>
-      </c>
-      <c r="D423" t="inlineStr"/>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-veganes-schinkentranchen/p/7102828</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>5</v>
+      </c>
       <c r="E423" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>UMAMI</t>
+          <t>OUTLAWZ Food</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>19.80/100g</t>
+          <t>6.88/100g</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
@@ -29589,7 +29593,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -29599,22 +29603,22 @@
       </c>
       <c r="L423" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'frische-kraeuter']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M423" t="inlineStr">
         <is>
-          <t>UMAMI Microgreens Powermix 4.95 Schweizer Franken</t>
+          <t>Outlawz Food veganes Schinkentranchen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N423" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29683,118 +29687,114 @@
       <c r="N424" t="inlineStr"/>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>6722900</t>
+          <t>4434295</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative</t>
+          <t>Naturaplan Bio Family Früchtebox</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-family-fruechtebox/p/4434295</t>
         </is>
       </c>
       <c r="D425" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E425" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>24.40</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>3.02/100g</t>
+          <t>8.13/1kg</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
         <is>
-          <t>3.02</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="K425" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L425" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M425" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N425" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Family Früchtebox 24.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N425" t="inlineStr"/>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>7102828</t>
+          <t>6722900</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Outlawz Food veganes Schinkentranchen</t>
+          <t>The Green Mountain plant-based Bratwurstalternative</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/outlawz-food-veganes-schinkentranchen/p/7102828</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/the-green-mountain-plant-based-bratwurstalternative/p/6722900</t>
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E426" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>OUTLAWZ Food</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>6.88/100g</t>
+          <t>3.02/100g</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
@@ -29804,7 +29804,7 @@
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>6.88</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -29814,12 +29814,12 @@
       </c>
       <c r="L426" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M426" t="inlineStr">
         <is>
-          <t>Outlawz Food veganes Schinkentranchen 5.50 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Bratwurstalternative 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N426" t="inlineStr">
@@ -29829,7 +29829,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -29898,141 +29898,141 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>6081655</t>
+          <t>6073361</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Haselnüsse extra</t>
+          <t>Naturaplan Bio Saisonfrüchte Box</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
+          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
         </is>
       </c>
       <c r="D428" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E428" t="n">
-        <v>5</v>
-      </c>
-      <c r="F428" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="F428" t="inlineStr">
+        <is>
+          <t>Coop</t>
+        </is>
+      </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>20.00</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>1.19/100g</t>
+          <t>6.67/1kg</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>6.67</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L428" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
         </is>
       </c>
       <c r="M428" t="inlineStr">
         <is>
-          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
+          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="N428" t="inlineStr"/>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>6073361</t>
+          <t>6081655</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box</t>
+          <t>Haselnüsse extra</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/fruechte-gemueseboxen/naturaplan-bio-saisonfruechte-box/p/6073361</t>
+          <t>/de/lebensmittel/fruechte-gemuese/nuesse-datteln-marroni-und-feigen/haselnuesse-extra/p/6081655</t>
         </is>
       </c>
       <c r="D429" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E429" t="n">
-        <v>2</v>
-      </c>
-      <c r="F429" t="inlineStr">
-        <is>
-          <t>Coop</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F429" t="inlineStr"/>
       <c r="G429" t="inlineStr">
         <is>
-          <t>20.00</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>6.67/1kg</t>
+          <t>1.19/100g</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L429" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'fruechte-gemueseboxen']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'nuesse-datteln-marroni-und-feigen']</t>
         </is>
       </c>
       <c r="M429" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Saisonfrüchte Box 20.00 Schweizer Franken</t>
+          <t>Haselnüsse extra 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30105,7 +30105,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30178,7 +30178,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30251,7 +30251,7 @@
       </c>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30324,45 +30324,45 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>6974165</t>
+          <t>7082903</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan</t>
+          <t>Yolo Cold Meat Slices Pistachio</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
         </is>
       </c>
       <c r="D434" t="n">
+        <v>1</v>
+      </c>
+      <c r="E434" t="n">
         <v>5</v>
       </c>
-      <c r="E434" t="n">
-        <v>3.5</v>
-      </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Yolo</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2.75/100g</t>
+          <t>4.00/100g</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
@@ -30372,7 +30372,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -30387,55 +30387,55 @@
       </c>
       <c r="M434" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
+          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N434" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>5668660</t>
+          <t>6974165</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar</t>
+          <t>The Green Mountain plant-based Tranchen vegan</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/the-green-mountain-plant-based-tranchen-vegan/p/6974165</t>
         </is>
       </c>
       <c r="D435" t="n">
         <v>5</v>
       </c>
       <c r="E435" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>4.88/100g</t>
+          <t>2.75/100g</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
@@ -30445,7 +30445,7 @@
       </c>
       <c r="J435" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="K435" t="inlineStr">
@@ -30455,60 +30455,60 @@
       </c>
       <c r="L435" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
         </is>
       </c>
       <c r="M435" t="inlineStr">
         <is>
-          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Tranchen vegan 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N435" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>7082903</t>
+          <t>5668660</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio</t>
+          <t>Délicorn Spacebar</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/cold-cuts/yolo-cold-meat-slices-pistachio/p/7082903</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/wuerste/delicorn-spacebar/p/5668660</t>
         </is>
       </c>
       <c r="D436" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E436" t="n">
         <v>5</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>Yolo</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>4.00/100g</t>
+          <t>4.88/100g</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
@@ -30518,7 +30518,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -30528,12 +30528,12 @@
       </c>
       <c r="L436" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'cold-cuts']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'wuerste']</t>
         </is>
       </c>
       <c r="M436" t="inlineStr">
         <is>
-          <t>Yolo Cold Meat Slices Pistachio 3.20 Schweizer Franken</t>
+          <t>Délicorn Spacebar 1.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N436" t="inlineStr">
@@ -30543,7 +30543,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30616,7 +30616,7 @@
       </c>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30689,7 +30689,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30746,7 +30746,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30819,7 +30819,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30892,7 +30892,7 @@
       </c>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -30957,7 +30957,7 @@
       <c r="N442" t="inlineStr"/>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31026,7 +31026,7 @@
       <c r="N443" t="inlineStr"/>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31099,7 +31099,7 @@
       </c>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31172,7 +31172,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31243,7 +31243,7 @@
       </c>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31316,7 +31316,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31389,31 +31389,31 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>7032802</t>
+          <t>7027585</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel</t>
+          <t>The Green Mountain plant-based Geschnetzeltes</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-geschnetzeltes/p/7027585</t>
         </is>
       </c>
       <c r="D449" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E449" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F449" t="inlineStr">
         <is>
@@ -31422,12 +31422,12 @@
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>4.17/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I449" t="inlineStr">
@@ -31437,7 +31437,7 @@
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>4.17</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K449" t="inlineStr">
@@ -31447,12 +31447,12 @@
       </c>
       <c r="L449" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
         </is>
       </c>
       <c r="M449" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Geschnetzeltes 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N449" t="inlineStr">
@@ -31462,24 +31462,24 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>6964029</t>
+          <t>7032802</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen</t>
+          <t>The Green Mountain plant-based Schnitzel</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
+          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/schnitzel-nuggets/the-green-mountain-plant-based-schnitzel/p/7032802</t>
         </is>
       </c>
       <c r="D450" t="n">
@@ -31490,17 +31490,17 @@
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>The GREEN MOUNTAIN</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>0.92/100g</t>
+          <t>4.17/100g</t>
         </is>
       </c>
       <c r="I450" t="inlineStr">
@@ -31510,7 +31510,7 @@
       </c>
       <c r="J450" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>4.17</t>
         </is>
       </c>
       <c r="K450" t="inlineStr">
@@ -31520,12 +31520,12 @@
       </c>
       <c r="L450" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
+          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'schnitzel-nuggets']</t>
         </is>
       </c>
       <c r="M450" t="inlineStr">
         <is>
-          <t>Betty Bossi Mungbohnen Sprossen - Online kein Bestand 2.30 Schweizer Franken</t>
+          <t>The Green Mountain plant-based Schnitzel 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N450" t="inlineStr">
@@ -31535,45 +31535,45 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>7027585</t>
+          <t>6964029</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Geschnetzeltes</t>
+          <t>Betty Bossi Mungbohnen Sprossen</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/fleisch-fisch/the-veggie-chef/gehacktes-geschnetzeltes/the-green-mountain-plant-based-geschnetzeltes/p/7027585</t>
+          <t>/de/lebensmittel/fruechte-gemuese/kraeuter-gewuerze/sprossen-kresse/betty-bossi-mungbohnen-sprossen/p/6964029</t>
         </is>
       </c>
       <c r="D451" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E451" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>The GREEN MOUNTAIN</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>0.92/100g</t>
         </is>
       </c>
       <c r="I451" t="inlineStr">
@@ -31583,7 +31583,7 @@
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="K451" t="inlineStr">
@@ -31593,12 +31593,12 @@
       </c>
       <c r="L451" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'fleisch-fisch', 'the-veggie-chef', 'gehacktes-geschnetzeltes']</t>
+          <t>['lebensmittel', 'fruechte-gemuese', 'kraeuter-gewuerze', 'sprossen-kresse']</t>
         </is>
       </c>
       <c r="M451" t="inlineStr">
         <is>
-          <t>The Green Mountain plant-based Geschnetzeltes 7.95 Schweizer Franken</t>
+          <t>Betty Bossi Mungbohnen Sprossen - Online kein Bestand 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N451" t="inlineStr">
@@ -31608,7 +31608,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31675,7 +31675,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31748,7 +31748,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31817,7 +31817,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31882,7 +31882,7 @@
       <c r="N455" t="inlineStr"/>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -31953,7 +31953,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32026,7 +32026,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32099,7 +32099,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32168,7 +32168,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32237,7 +32237,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32308,7 +32308,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32371,7 +32371,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32436,7 +32436,7 @@
       <c r="N463" t="inlineStr"/>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32503,7 +32503,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32574,7 +32574,7 @@
       </c>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32647,7 +32647,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32718,7 +32718,7 @@
       </c>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32789,7 +32789,7 @@
       </c>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32860,7 +32860,7 @@
       </c>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32927,7 +32927,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -32996,7 +32996,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
@@ -33061,7 +33061,7 @@
       <c r="N472" t="inlineStr"/>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-02-15 12:59:39</t>
+          <t>2023-02-15 20:51:08</t>
         </is>
       </c>
     </row>
